--- a/Timeline Project.xlsx
+++ b/Timeline Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\G2Academy Bootcamp\Bootcamp\Final Project OjekOnline\Kang-Ojek-Onlen-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F234BEFF-549A-4A13-B4B7-8A1431423AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCA2EA6-BBB1-4AA3-A058-91F0AAEBC0B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F08539B5-CDC0-4477-A6F3-66D55EB264EF}"/>
   </bookViews>
@@ -621,7 +621,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,7 +814,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>17</v>
